--- a/Data_frame/balancos_definitivos/TRAD3.xlsx
+++ b/Data_frame/balancos_definitivos/TRAD3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,21 @@
           <t>30/09/2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -534,6 +549,15 @@
       <c r="L2" t="n">
         <v>509032</v>
       </c>
+      <c r="M2" t="n">
+        <v>309631.008</v>
+      </c>
+      <c r="N2" t="n">
+        <v>300476.992</v>
+      </c>
+      <c r="O2" t="n">
+        <v>275648</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -574,6 +598,15 @@
       <c r="L3" t="n">
         <v>144454</v>
       </c>
+      <c r="M3" t="n">
+        <v>113076</v>
+      </c>
+      <c r="N3" t="n">
+        <v>102870</v>
+      </c>
+      <c r="O3" t="n">
+        <v>96900</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -614,6 +647,15 @@
       <c r="L4" t="n">
         <v>93893</v>
       </c>
+      <c r="M4" t="n">
+        <v>83457</v>
+      </c>
+      <c r="N4" t="n">
+        <v>74257</v>
+      </c>
+      <c r="O4" t="n">
+        <v>60438</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -654,6 +696,15 @@
       <c r="L5" t="n">
         <v>12283</v>
       </c>
+      <c r="M5" t="n">
+        <v>1665</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1700</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1144</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -694,6 +745,15 @@
       <c r="L6" t="n">
         <v>10218</v>
       </c>
+      <c r="M6" t="n">
+        <v>11853</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11275</v>
+      </c>
+      <c r="O6" t="n">
+        <v>10834</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -734,6 +794,15 @@
       <c r="L7" t="n">
         <v>0</v>
       </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -774,6 +843,15 @@
       <c r="L8" t="n">
         <v>0</v>
       </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -814,6 +892,15 @@
       <c r="L9" t="n">
         <v>14804</v>
       </c>
+      <c r="M9" t="n">
+        <v>4967</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4810</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5713</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -854,6 +941,15 @@
       <c r="L10" t="n">
         <v>7108</v>
       </c>
+      <c r="M10" t="n">
+        <v>3959</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4041</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4430</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -894,6 +990,15 @@
       <c r="L11" t="n">
         <v>6148</v>
       </c>
+      <c r="M11" t="n">
+        <v>7175</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6787</v>
+      </c>
+      <c r="O11" t="n">
+        <v>14341</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -934,6 +1039,15 @@
       <c r="L12" t="n">
         <v>50545</v>
       </c>
+      <c r="M12" t="n">
+        <v>19175</v>
+      </c>
+      <c r="N12" t="n">
+        <v>18087</v>
+      </c>
+      <c r="O12" t="n">
+        <v>24706</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -974,6 +1088,15 @@
       <c r="L13" t="n">
         <v>0</v>
       </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1014,6 +1137,15 @@
       <c r="L14" t="n">
         <v>0</v>
       </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1054,6 +1186,15 @@
       <c r="L15" t="n">
         <v>0</v>
       </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1094,6 +1235,15 @@
       <c r="L16" t="n">
         <v>0</v>
       </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1134,6 +1284,15 @@
       <c r="L17" t="n">
         <v>0</v>
       </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1174,6 +1333,15 @@
       <c r="L18" t="n">
         <v>0</v>
       </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1214,6 +1382,15 @@
       <c r="L19" t="n">
         <v>35395</v>
       </c>
+      <c r="M19" t="n">
+        <v>11102</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11193</v>
+      </c>
+      <c r="O19" t="n">
+        <v>12171</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1254,6 +1431,15 @@
       <c r="L20" t="n">
         <v>0</v>
       </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1294,6 +1480,15 @@
       <c r="L21" t="n">
         <v>53</v>
       </c>
+      <c r="M21" t="n">
+        <v>188</v>
+      </c>
+      <c r="N21" t="n">
+        <v>185</v>
+      </c>
+      <c r="O21" t="n">
+        <v>7060</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1334,6 +1529,15 @@
       <c r="L22" t="n">
         <v>125267</v>
       </c>
+      <c r="M22" t="n">
+        <v>76623</v>
+      </c>
+      <c r="N22" t="n">
+        <v>76327</v>
+      </c>
+      <c r="O22" t="n">
+        <v>60082</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1374,6 +1578,15 @@
       <c r="L23" t="n">
         <v>11297</v>
       </c>
+      <c r="M23" t="n">
+        <v>9813</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11553</v>
+      </c>
+      <c r="O23" t="n">
+        <v>11086</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1414,6 +1627,15 @@
       <c r="L24" t="n">
         <v>177468.992</v>
       </c>
+      <c r="M24" t="n">
+        <v>90944</v>
+      </c>
+      <c r="N24" t="n">
+        <v>91640</v>
+      </c>
+      <c r="O24" t="n">
+        <v>82874</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1454,6 +1676,15 @@
       <c r="L25" t="n">
         <v>0</v>
       </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1494,6 +1725,15 @@
       <c r="L26" t="n">
         <v>509032</v>
       </c>
+      <c r="M26" t="n">
+        <v>309631.008</v>
+      </c>
+      <c r="N26" t="n">
+        <v>300476.992</v>
+      </c>
+      <c r="O26" t="n">
+        <v>275648</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1534,6 +1774,15 @@
       <c r="L27" t="n">
         <v>31182</v>
       </c>
+      <c r="M27" t="n">
+        <v>23384</v>
+      </c>
+      <c r="N27" t="n">
+        <v>23615</v>
+      </c>
+      <c r="O27" t="n">
+        <v>21608</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1574,6 +1823,15 @@
       <c r="L28" t="n">
         <v>2340</v>
       </c>
+      <c r="M28" t="n">
+        <v>1933</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1473</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1309</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1614,6 +1872,15 @@
       <c r="L29" t="n">
         <v>0</v>
       </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1654,6 +1921,15 @@
       <c r="L30" t="n">
         <v>4892</v>
       </c>
+      <c r="M30" t="n">
+        <v>843</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1168</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1696</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1694,6 +1970,15 @@
       <c r="L31" t="n">
         <v>1147</v>
       </c>
+      <c r="M31" t="n">
+        <v>547</v>
+      </c>
+      <c r="N31" t="n">
+        <v>694</v>
+      </c>
+      <c r="O31" t="n">
+        <v>539</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1734,6 +2019,15 @@
       <c r="L32" t="n">
         <v>0</v>
       </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1774,6 +2068,15 @@
       <c r="L33" t="n">
         <v>0</v>
       </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1814,6 +2117,15 @@
       <c r="L34" t="n">
         <v>22803</v>
       </c>
+      <c r="M34" t="n">
+        <v>20061</v>
+      </c>
+      <c r="N34" t="n">
+        <v>20280</v>
+      </c>
+      <c r="O34" t="n">
+        <v>18064</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1854,6 +2166,15 @@
       <c r="L35" t="n">
         <v>0</v>
       </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1894,6 +2215,15 @@
       <c r="L36" t="n">
         <v>0</v>
       </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1934,6 +2264,15 @@
       <c r="L37" t="n">
         <v>277</v>
       </c>
+      <c r="M37" t="n">
+        <v>2470</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4566</v>
+      </c>
+      <c r="O37" t="n">
+        <v>6083</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1974,6 +2313,15 @@
       <c r="L38" t="n">
         <v>0</v>
       </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2383</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2595</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2014,6 +2362,15 @@
       <c r="L39" t="n">
         <v>0</v>
       </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2054,6 +2411,15 @@
       <c r="L40" t="n">
         <v>0</v>
       </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2094,6 +2460,15 @@
       <c r="L41" t="n">
         <v>0</v>
       </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2134,6 +2509,15 @@
       <c r="L42" t="n">
         <v>0</v>
       </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2174,6 +2558,15 @@
       <c r="L43" t="n">
         <v>277</v>
       </c>
+      <c r="M43" t="n">
+        <v>2470</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2183</v>
+      </c>
+      <c r="O43" t="n">
+        <v>3488</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2214,6 +2607,15 @@
       <c r="L44" t="n">
         <v>0</v>
       </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2254,6 +2656,15 @@
       <c r="L45" t="n">
         <v>0</v>
       </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2294,6 +2705,15 @@
       <c r="L46" t="n">
         <v>460</v>
       </c>
+      <c r="M46" t="n">
+        <v>-172</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-191</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-12</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2334,6 +2754,15 @@
       <c r="L47" t="n">
         <v>477112.992</v>
       </c>
+      <c r="M47" t="n">
+        <v>283948.992</v>
+      </c>
+      <c r="N47" t="n">
+        <v>272487</v>
+      </c>
+      <c r="O47" t="n">
+        <v>247968.992</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2374,6 +2803,15 @@
       <c r="L48" t="n">
         <v>581164.032</v>
       </c>
+      <c r="M48" t="n">
+        <v>581164.032</v>
+      </c>
+      <c r="N48" t="n">
+        <v>581164.032</v>
+      </c>
+      <c r="O48" t="n">
+        <v>581164.032</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2414,6 +2852,15 @@
       <c r="L49" t="n">
         <v>24752</v>
       </c>
+      <c r="M49" t="n">
+        <v>20568</v>
+      </c>
+      <c r="N49" t="n">
+        <v>20568</v>
+      </c>
+      <c r="O49" t="n">
+        <v>20568</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2454,6 +2901,15 @@
       <c r="L50" t="n">
         <v>0</v>
       </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2494,6 +2950,15 @@
       <c r="L51" t="n">
         <v>0</v>
       </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2534,6 +2999,15 @@
       <c r="L52" t="n">
         <v>-128803</v>
       </c>
+      <c r="M52" t="n">
+        <v>-317783.008</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-329244.992</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-353763.008</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2574,6 +3048,15 @@
       <c r="L53" t="n">
         <v>0</v>
       </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2614,6 +3097,15 @@
       <c r="L54" t="n">
         <v>0</v>
       </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2654,6 +3146,15 @@
       <c r="L55" t="n">
         <v>0</v>
       </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2692,6 +3193,15 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2712,6 +3222,9 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2730,6 +3243,9 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2770,6 +3286,15 @@
       <c r="L59" t="n">
         <v>12413</v>
       </c>
+      <c r="M59" t="n">
+        <v>13405</v>
+      </c>
+      <c r="N59" t="n">
+        <v>11386</v>
+      </c>
+      <c r="O59" t="n">
+        <v>13070</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2810,6 +3335,15 @@
       <c r="L60" t="n">
         <v>-9387</v>
       </c>
+      <c r="M60" t="n">
+        <v>-8972</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-9148</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-8609</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2850,6 +3384,15 @@
       <c r="L61" t="n">
         <v>3026</v>
       </c>
+      <c r="M61" t="n">
+        <v>4433</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2238</v>
+      </c>
+      <c r="O61" t="n">
+        <v>4461</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2890,6 +3433,15 @@
       <c r="L62" t="n">
         <v>-3421</v>
       </c>
+      <c r="M62" t="n">
+        <v>-3130</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-2214</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-1776</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2930,6 +3482,15 @@
       <c r="L63" t="n">
         <v>-13221</v>
       </c>
+      <c r="M63" t="n">
+        <v>-18577</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-12410</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-16371</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2970,6 +3531,15 @@
       <c r="L64" t="n">
         <v>0</v>
       </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3010,6 +3580,15 @@
       <c r="L65" t="n">
         <v>0</v>
       </c>
+      <c r="M65" t="n">
+        <v>-128884</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-12082</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3050,6 +3629,15 @@
       <c r="L66" t="n">
         <v>7170</v>
       </c>
+      <c r="M66" t="n">
+        <v>-7048</v>
+      </c>
+      <c r="N66" t="n">
+        <v>27</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3090,6 +3678,15 @@
       <c r="L67" t="n">
         <v>805</v>
       </c>
+      <c r="M67" t="n">
+        <v>-262</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-40</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1654</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3130,6 +3727,15 @@
       <c r="L68" t="n">
         <v>-1352</v>
       </c>
+      <c r="M68" t="n">
+        <v>-185</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1475</v>
+      </c>
+      <c r="O68" t="n">
+        <v>488</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3170,6 +3776,15 @@
       <c r="L69" t="n">
         <v>15414</v>
       </c>
+      <c r="M69" t="n">
+        <v>2727</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2476</v>
+      </c>
+      <c r="O69" t="n">
+        <v>2250</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3209,6 +3824,15 @@
       </c>
       <c r="L70" t="n">
         <v>-16766</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-2912</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-1001</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-1762</v>
       </c>
     </row>
     <row r="71">
@@ -3228,6 +3852,9 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3246,6 +3873,9 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3264,6 +3894,9 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3304,6 +3937,15 @@
       <c r="L74" t="n">
         <v>-6993</v>
       </c>
+      <c r="M74" t="n">
+        <v>-153652.992</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-10924</v>
+      </c>
+      <c r="O74" t="n">
+        <v>-23626</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3344,6 +3986,15 @@
       <c r="L75" t="n">
         <v>-1880</v>
       </c>
+      <c r="M75" t="n">
+        <v>-766</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-665</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-678</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3383,6 +4034,15 @@
       </c>
       <c r="L76" t="n">
         <v>58</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-35204</v>
+      </c>
+      <c r="N76" t="n">
+        <v>43</v>
+      </c>
+      <c r="O76" t="n">
+        <v>279</v>
       </c>
     </row>
     <row r="77">
@@ -3402,6 +4062,9 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3420,6 +4083,9 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3460,6 +4126,15 @@
       <c r="L79" t="n">
         <v>128</v>
       </c>
+      <c r="M79" t="n">
+        <v>215</v>
+      </c>
+      <c r="N79" t="n">
+        <v>84</v>
+      </c>
+      <c r="O79" t="n">
+        <v>-245</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3499,6 +4174,15 @@
       </c>
       <c r="L80" t="n">
         <v>-8687</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-189408</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-11462</v>
+      </c>
+      <c r="O80" t="n">
+        <v>-24270</v>
       </c>
     </row>
   </sheetData>
